--- a/Tempus AI Model.xlsx
+++ b/Tempus AI Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kerem\OneDrive\Masaüstü\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48EF6A95-F1EC-4C0A-8DFD-A0F7718B2385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCFBCCC-50E2-4BF4-ADB0-53CC5C025FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33780" yWindow="264" windowWidth="27216" windowHeight="16248" xr2:uid="{64BEE0EA-45A1-4490-9445-11F5F6D37C44}"/>
+    <workbookView xWindow="13572" yWindow="60" windowWidth="17952" windowHeight="12312" xr2:uid="{64BEE0EA-45A1-4490-9445-11F5F6D37C44}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -528,21 +528,6 @@
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -560,6 +545,27 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -568,12 +574,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1126,8 +1126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF806BA9-FD26-46A5-A630-9D65D6C233D8}">
   <dimension ref="B2:X96"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1159,28 +1159,28 @@
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="29"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
     </row>
     <row r="5" spans="2:24" s="19" customFormat="1" ht="1.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="20"/>
@@ -1236,11 +1236,11 @@
       <c r="G7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="34">
         <v>2400</v>
       </c>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
       <c r="M7" s="1" t="s">
         <v>46</v>
       </c>
@@ -1258,11 +1258,11 @@
       <c r="G8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="25">
+      <c r="I8" s="35">
         <v>42217</v>
       </c>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
       <c r="M8" s="1" t="s">
         <v>47</v>
       </c>
@@ -1283,11 +1283,11 @@
       <c r="G9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I9" s="28" t="s">
+      <c r="I9" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
       <c r="M9" s="1" t="s">
         <v>52</v>
       </c>
@@ -1302,11 +1302,11 @@
       <c r="G10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I10" s="28" t="s">
+      <c r="I10" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
       <c r="M10" s="1" t="s">
         <v>32</v>
       </c>
@@ -1323,11 +1323,11 @@
       <c r="G11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I11" s="28" t="s">
+      <c r="I11" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
       <c r="M11" s="1" t="s">
         <v>48</v>
       </c>
@@ -1335,8 +1335,8 @@
       <c r="R11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="36"/>
     </row>
     <row r="12" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
@@ -1348,11 +1348,11 @@
       <c r="G12" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I12" s="25">
+      <c r="I12" s="35">
         <v>46004</v>
       </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
       <c r="M12" s="1" t="s">
         <v>49</v>
       </c>
@@ -1377,22 +1377,22 @@
       <c r="U14" s="7"/>
     </row>
     <row r="15" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29">
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24">
         <v>2024</v>
       </c>
-      <c r="F15" s="29">
+      <c r="F15" s="24">
         <f>E15+1</f>
         <v>2025</v>
       </c>
-      <c r="G15" s="30" t="s">
+      <c r="G15" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="30" t="s">
+      <c r="H15" s="25" t="s">
         <v>6</v>
       </c>
       <c r="M15" s="16" t="s">
@@ -1538,8 +1538,8 @@
         <v>43</v>
       </c>
       <c r="S22" s="3"/>
-      <c r="T22" s="27"/>
-      <c r="U22" s="27"/>
+      <c r="T22" s="37"/>
+      <c r="U22" s="37"/>
     </row>
     <row r="23" spans="2:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
@@ -1558,31 +1558,31 @@
       <c r="U23" s="7"/>
     </row>
     <row r="25" spans="2:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29">
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24">
         <v>2024</v>
       </c>
-      <c r="F25" s="29">
+      <c r="F25" s="24">
         <f>E25+1</f>
         <v>2025</v>
       </c>
-      <c r="G25" s="30" t="s">
+      <c r="G25" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="H25" s="30" t="s">
+      <c r="H25" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="I25" s="30" t="s">
+      <c r="I25" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="J25" s="30" t="s">
+      <c r="J25" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="K25" s="30" t="s">
+      <c r="K25" s="25" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1607,31 +1607,31 @@
       <c r="B27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="35">
+      <c r="E27" s="30">
         <f>Segments!E4</f>
         <v>693.34900000000005</v>
       </c>
-      <c r="F27" s="35">
+      <c r="F27" s="30">
         <f>Segments!F4</f>
         <v>1265.242</v>
       </c>
-      <c r="G27" s="35">
+      <c r="G27" s="30">
         <f>Segments!G4</f>
         <v>1576.9639999999999</v>
       </c>
-      <c r="H27" s="35">
+      <c r="H27" s="30">
         <f>Segments!H4</f>
         <v>1964.67</v>
       </c>
-      <c r="I27" s="35">
+      <c r="I27" s="30">
         <f>Segments!I4</f>
         <v>2399.7199999999998</v>
       </c>
-      <c r="J27" s="35">
+      <c r="J27" s="30">
         <f>Segments!J4</f>
         <v>2952</v>
       </c>
-      <c r="K27" s="35">
+      <c r="K27" s="30">
         <f>Segments!K4</f>
         <v>3531.3</v>
       </c>
@@ -1694,8 +1694,9 @@
       <c r="B30" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E30" s="9">
-        <v>289.7</v>
+      <c r="E30" s="30">
+        <f>Segments!E35</f>
+        <v>312.28500000000003</v>
       </c>
       <c r="F30" s="9">
         <v>470.95600000000002</v>
@@ -1725,7 +1726,7 @@
       </c>
       <c r="E31" s="8">
         <f>E30/E27</f>
-        <v>0.41782709717616956</v>
+        <v>0.45040088036472253</v>
       </c>
       <c r="F31" s="8">
         <f t="shared" ref="F31:K31" si="6">F30/F27</f>
@@ -1762,7 +1763,7 @@
       </c>
       <c r="E33" s="5">
         <f>E27-E30</f>
-        <v>403.64900000000006</v>
+        <v>381.06400000000002</v>
       </c>
       <c r="F33" s="5">
         <f t="shared" ref="F33:K33" si="7">F27-F30</f>
@@ -1798,7 +1799,7 @@
       </c>
       <c r="E34" s="8">
         <f>E33/E27</f>
-        <v>0.5821729028238305</v>
+        <v>0.54959911963527741</v>
       </c>
       <c r="F34" s="8">
         <f t="shared" ref="F34:K34" si="8">F33/F27</f>
@@ -1833,8 +1834,9 @@
       <c r="B36" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E36" s="9">
-        <v>755.4</v>
+      <c r="E36" s="5">
+        <f>755.4+167.519</f>
+        <v>922.91899999999998</v>
       </c>
       <c r="F36" s="9">
         <v>656.46299999999997</v>
@@ -1864,7 +1866,7 @@
       </c>
       <c r="E37" s="8">
         <f t="shared" ref="E37:K37" si="9">E36/E$27</f>
-        <v>1.0894946123813547</v>
+        <v>1.3311030952665972</v>
       </c>
       <c r="F37" s="8">
         <f t="shared" si="9"/>
@@ -1903,7 +1905,7 @@
         <v>65</v>
       </c>
       <c r="E39" s="9">
-        <v>100.1</v>
+        <v>149.32499999999999</v>
       </c>
       <c r="F39" s="9">
         <v>163.92099999999999</v>
@@ -1933,7 +1935,7 @@
       </c>
       <c r="E40" s="8">
         <f>E39/E$27</f>
-        <v>0.14437173775400267</v>
+        <v>0.21536772967149298</v>
       </c>
       <c r="F40" s="8">
         <f t="shared" ref="F40:K40" si="10">F39/F$27</f>
@@ -1967,11 +1969,11 @@
       <c r="B42" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E42" s="36">
+      <c r="E42" s="31">
         <f>E33-E36-E39</f>
-        <v>-451.85099999999989</v>
-      </c>
-      <c r="F42" s="36">
+        <v>-691.18000000000006</v>
+      </c>
+      <c r="F42" s="31">
         <f t="shared" ref="F42:K42" si="11">F33-F36-F39</f>
         <v>-26.098000000000013</v>
       </c>
@@ -2005,7 +2007,7 @@
       </c>
       <c r="E43" s="8">
         <f t="shared" ref="E43:K43" si="12">E42/E$27</f>
-        <v>-0.6516934473115269</v>
+        <v>-0.99687170530281288</v>
       </c>
       <c r="F43" s="8">
         <f t="shared" si="12"/>
@@ -2039,25 +2041,25 @@
       <c r="B45" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E45" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="F45" s="9">
+      <c r="E45" s="31">
+        <v>-266</v>
+      </c>
+      <c r="F45" s="31">
         <v>-45.631599999999999</v>
       </c>
-      <c r="G45" s="5">
+      <c r="G45" s="31">
         <v>7.0624000000000006E-2</v>
       </c>
-      <c r="H45" s="5">
+      <c r="H45" s="31">
         <v>1.52966</v>
       </c>
-      <c r="I45" s="5">
+      <c r="I45" s="31">
         <v>12.183299999999999</v>
       </c>
-      <c r="J45" s="5">
+      <c r="J45" s="31">
         <v>17.366700000000002</v>
       </c>
-      <c r="K45" s="5">
+      <c r="K45" s="31">
         <v>0.55000000000000004</v>
       </c>
       <c r="L45" s="5"/>
@@ -2070,7 +2072,7 @@
       </c>
       <c r="E46" s="8">
         <f>E45/E42</f>
-        <v>-6.6393567791152405E-4</v>
+        <v>0.38484909864290051</v>
       </c>
       <c r="F46" s="8">
         <f t="shared" ref="F46:K46" si="13">F45/F42</f>
@@ -2101,31 +2103,31 @@
       <c r="N46" s="8"/>
     </row>
     <row r="48" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="29" t="s">
+      <c r="B48" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29">
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24">
         <v>2024</v>
       </c>
-      <c r="F48" s="29">
+      <c r="F48" s="24">
         <f>E48+1</f>
         <v>2025</v>
       </c>
-      <c r="G48" s="30" t="s">
+      <c r="G48" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="H48" s="30" t="s">
+      <c r="H48" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="I48" s="30" t="s">
+      <c r="I48" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="J48" s="30" t="s">
+      <c r="J48" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="K48" s="30" t="s">
+      <c r="K48" s="25" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2151,7 +2153,7 @@
         <v>17</v>
       </c>
       <c r="E50" s="9">
-        <v>33.1</v>
+        <v>37.244999999999997</v>
       </c>
       <c r="F50" s="9">
         <v>72.157799999999995</v>
@@ -2181,7 +2183,7 @@
       </c>
       <c r="E51" s="8">
         <f>E50/E27</f>
-        <v>4.7739305890684203E-2</v>
+        <v>5.3717536190288004E-2</v>
       </c>
       <c r="F51" s="8">
         <f t="shared" ref="F51:K51" si="14">F50/F27</f>
@@ -2217,7 +2219,7 @@
       </c>
       <c r="E52" s="8">
         <f>E50/E54</f>
-        <v>1.5045454545454546</v>
+        <v>1.6929545454545454</v>
       </c>
       <c r="F52" s="8">
         <f t="shared" ref="F52:K52" si="15">F50/F54</f>
@@ -2361,31 +2363,31 @@
       <c r="N59" s="11"/>
     </row>
     <row r="61" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="29" t="s">
+      <c r="B61" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C61" s="29"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="29">
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24">
         <v>2024</v>
       </c>
-      <c r="F61" s="29">
+      <c r="F61" s="24">
         <f>E61+1</f>
         <v>2025</v>
       </c>
-      <c r="G61" s="30" t="s">
+      <c r="G61" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="H61" s="30" t="s">
+      <c r="H61" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="I61" s="30" t="s">
+      <c r="I61" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="J61" s="30" t="s">
+      <c r="J61" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="K61" s="30" t="s">
+      <c r="K61" s="25" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2478,7 +2480,7 @@
       </c>
       <c r="E65" s="10">
         <f>E42</f>
-        <v>-451.85099999999989</v>
+        <v>-691.18000000000006</v>
       </c>
       <c r="F65" s="10">
         <f t="shared" ref="F65:K65" si="25">F42</f>
@@ -2516,7 +2518,7 @@
       <c r="D66" s="2"/>
       <c r="E66" s="8">
         <f>E65/$E$62</f>
-        <v>-0.6516934473115269</v>
+        <v>-0.99687170530281288</v>
       </c>
       <c r="F66" s="8">
         <f t="shared" ref="F66:K66" si="26">F65/$E$62</f>
@@ -2590,7 +2592,7 @@
       <c r="D69" s="2"/>
       <c r="E69" s="8">
         <f>E68/E65</f>
-        <v>-6.6393567791152405E-4</v>
+        <v>-4.340403368153013E-4</v>
       </c>
       <c r="F69" s="8">
         <f t="shared" ref="F69" si="27">F68/F65</f>
@@ -2626,7 +2628,7 @@
       </c>
       <c r="E71" s="10">
         <f>E65+E68</f>
-        <v>-451.55099999999987</v>
+        <v>-690.88000000000011</v>
       </c>
       <c r="F71" s="10">
         <f t="shared" ref="F71:K71" si="33">F65+F68</f>
@@ -2662,7 +2664,7 @@
       </c>
       <c r="E73" s="5">
         <f>E50</f>
-        <v>33.1</v>
+        <v>37.244999999999997</v>
       </c>
       <c r="F73" s="5">
         <f t="shared" ref="F73:K73" si="34">F50</f>
@@ -2700,7 +2702,7 @@
       <c r="D74" s="2"/>
       <c r="E74" s="8">
         <f t="shared" ref="E74:K74" si="35">E73/E$62</f>
-        <v>4.7739305890684203E-2</v>
+        <v>5.3717536190288004E-2</v>
       </c>
       <c r="F74" s="8">
         <f t="shared" si="35"/>
@@ -2735,8 +2737,7 @@
         <v>18</v>
       </c>
       <c r="E76" s="5">
-        <f>E54</f>
-        <v>22</v>
+        <v>22.120999999999999</v>
       </c>
       <c r="F76" s="5">
         <f t="shared" ref="F76:K76" si="36">F54</f>
@@ -2775,7 +2776,7 @@
       <c r="D77" s="2"/>
       <c r="E77" s="8">
         <f>E76/E$62</f>
-        <v>3.1730052253626961E-2</v>
+        <v>3.1904567541021903E-2</v>
       </c>
       <c r="F77" s="8">
         <f>F76/F$62</f>
@@ -2810,8 +2811,7 @@
         <v>19</v>
       </c>
       <c r="E79" s="10">
-        <f>E57</f>
-        <v>419</v>
+        <v>-37.799999999999997</v>
       </c>
       <c r="F79" s="10">
         <f t="shared" ref="F79:G79" si="38">F57</f>
@@ -2837,7 +2837,7 @@
       <c r="D80" s="2"/>
       <c r="E80" s="8">
         <f t="shared" ref="E80:G80" si="39">E79/$E$62</f>
-        <v>0.60431326792134976</v>
+        <v>-5.4517998872140865E-2</v>
       </c>
       <c r="F80" s="8">
         <f t="shared" si="39"/>
@@ -3014,7 +3014,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D755C1-F80B-4C2F-AFEE-9D4756B0A66A}">
   <dimension ref="B2:S60"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3027,31 +3029,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24">
         <v>2024</v>
       </c>
-      <c r="F2" s="29">
+      <c r="F2" s="24">
         <f>E2+1</f>
         <v>2025</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="25" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3071,7 +3073,7 @@
       <c r="P3" s="21"/>
     </row>
     <row r="4" spans="2:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="26" t="s">
         <v>86</v>
       </c>
       <c r="E4" s="9">
@@ -3155,7 +3157,7 @@
       <c r="K6" s="8"/>
     </row>
     <row r="7" spans="2:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="26" t="s">
         <v>79</v>
       </c>
       <c r="E7" s="9">
@@ -3189,27 +3191,27 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="8">
-        <f>(F7-E7)/E7</f>
+        <f t="shared" ref="F8:K8" si="2">(F7-E7)/E7</f>
         <v>1.1033694930263447</v>
       </c>
       <c r="G8" s="8">
-        <f>(G7-F7)/F7</f>
+        <f t="shared" si="2"/>
         <v>0.23263852342720484</v>
       </c>
       <c r="H8" s="8">
-        <f>(H7-G7)/G7</f>
+        <f t="shared" si="2"/>
         <v>0.23349443267982792</v>
       </c>
       <c r="I8" s="8">
-        <f>(I7-H7)/H7</f>
+        <f t="shared" si="2"/>
         <v>0.21740033366330463</v>
       </c>
       <c r="J8" s="8">
-        <f>(J7-I7)/I7</f>
+        <f t="shared" si="2"/>
         <v>0.23776028931776058</v>
       </c>
       <c r="K8" s="8">
-        <f>(K7-J7)/J7</f>
+        <f t="shared" si="2"/>
         <v>0.18782588721718155</v>
       </c>
     </row>
@@ -3224,27 +3226,27 @@
         <v>0.65147566377105903</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" ref="F9:K9" si="2">F7/F4</f>
+        <f t="shared" ref="F9:K9" si="3">F7/F4</f>
         <v>0.75091721583697035</v>
       </c>
       <c r="G9" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.74264219094411787</v>
       </c>
       <c r="H9" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.73527360829045074</v>
       </c>
       <c r="I9" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.73284383178037438</v>
       </c>
       <c r="J9" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.73738143631436315</v>
       </c>
       <c r="K9" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.73219494237249727</v>
       </c>
     </row>
@@ -3261,7 +3263,7 @@
       <c r="K10" s="8"/>
     </row>
     <row r="11" spans="2:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="27" t="s">
         <v>80</v>
       </c>
       <c r="E11" s="9">
@@ -3298,23 +3300,23 @@
         <v>0.33399404614239619</v>
       </c>
       <c r="G12" s="8">
-        <f t="shared" ref="G12" si="3">(G11-F11)/F11</f>
+        <f t="shared" ref="G12" si="4">(G11-F11)/F11</f>
         <v>0.26748218911616001</v>
       </c>
       <c r="H12" s="8">
-        <f t="shared" ref="H12" si="4">(H11-G11)/G11</f>
+        <f t="shared" ref="H12" si="5">(H11-G11)/G11</f>
         <v>0.29476192362599712</v>
       </c>
       <c r="I12" s="8">
-        <f t="shared" ref="I12" si="5">(I11-H11)/H11</f>
+        <f t="shared" ref="I12" si="6">(I11-H11)/H11</f>
         <v>0.2270487168358703</v>
       </c>
       <c r="J12" s="8">
-        <f t="shared" ref="J12" si="6">(J11-I11)/I11</f>
+        <f t="shared" ref="J12" si="7">(J11-I11)/I11</f>
         <v>0.23749803754975396</v>
       </c>
       <c r="K12" s="8">
-        <f t="shared" ref="K12" si="7">(K11-J11)/J11</f>
+        <f t="shared" ref="K12" si="8">(K11-J11)/J11</f>
         <v>0.18682835820895516</v>
       </c>
     </row>
@@ -3325,31 +3327,31 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="8">
-        <f>E11/E7</f>
+        <f t="shared" ref="E13:K13" si="9">E11/E7</f>
         <v>0.89240646446756688</v>
       </c>
       <c r="F13" s="8">
-        <f>F11/F7</f>
+        <f t="shared" si="9"/>
         <v>0.56597992615451975</v>
       </c>
       <c r="G13" s="8">
-        <f>G11/G7</f>
+        <f t="shared" si="9"/>
         <v>0.58197878953480431</v>
       </c>
       <c r="H13" s="8">
-        <f>H11/H7</f>
+        <f t="shared" si="9"/>
         <v>0.61088559225236572</v>
       </c>
       <c r="I13" s="8">
-        <f>I11/I7</f>
+        <f t="shared" si="9"/>
         <v>0.61572710420670751</v>
       </c>
       <c r="J13" s="8">
-        <f>J11/J7</f>
+        <f t="shared" si="9"/>
         <v>0.61559664637647871</v>
       </c>
       <c r="K13" s="8">
-        <f>K11/K7</f>
+        <f t="shared" si="9"/>
         <v>0.61507967202970293</v>
       </c>
     </row>
@@ -3366,7 +3368,7 @@
       <c r="K14" s="8"/>
     </row>
     <row r="15" spans="2:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="27" t="s">
         <v>81</v>
       </c>
       <c r="E15" s="9">
@@ -3403,23 +3405,23 @@
         <v>-7.561728395061737E-2</v>
       </c>
       <c r="G16" s="8">
-        <f t="shared" ref="G16" si="8">(G15-F15)/F15</f>
+        <f t="shared" ref="G16" si="10">(G15-F15)/F15</f>
         <v>4.9526989426822515E-2</v>
       </c>
       <c r="H16" s="8">
-        <f t="shared" ref="H16" si="9">(H15-G15)/G15</f>
+        <f t="shared" ref="H16" si="11">(H15-G15)/G15</f>
         <v>6.7868504772004304E-2</v>
       </c>
       <c r="I16" s="8">
-        <f t="shared" ref="I16" si="10">(I15-H15)/H15</f>
+        <f t="shared" ref="I16" si="12">(I15-H15)/H15</f>
         <v>-5.263157894736839E-2</v>
       </c>
       <c r="J16" s="8">
-        <f t="shared" ref="J16" si="11">(J15-I15)/I15</f>
+        <f t="shared" ref="J16" si="13">(J15-I15)/I15</f>
         <v>-1.2578616352201286E-2</v>
       </c>
       <c r="K16" s="8">
-        <f t="shared" ref="K16" si="12">(K15-J15)/J15</f>
+        <f t="shared" ref="K16" si="14">(K15-J15)/J15</f>
         <v>2.5477707006369334E-2</v>
       </c>
     </row>
@@ -3430,39 +3432,39 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="8">
-        <f>E15/E7</f>
+        <f t="shared" ref="E17:K17" si="15">E15/E7</f>
         <v>0.10759353553243302</v>
       </c>
       <c r="F17" s="8">
-        <f>F15/F7</f>
+        <f t="shared" si="15"/>
         <v>4.7284894515478501E-2</v>
       </c>
       <c r="G17" s="8">
-        <f>G15/G7</f>
+        <f t="shared" si="15"/>
         <v>4.0260605232597856E-2</v>
       </c>
       <c r="H17" s="8">
-        <f>H15/H7</f>
+        <f t="shared" si="15"/>
         <v>3.4854662633171121E-2</v>
       </c>
       <c r="I17" s="8">
-        <f>I15/I7</f>
+        <f t="shared" si="15"/>
         <v>2.7123540048447081E-2</v>
       </c>
       <c r="J17" s="8">
-        <f>J15/J7</f>
+        <f t="shared" si="15"/>
         <v>2.1637762719650858E-2</v>
       </c>
       <c r="K17" s="8">
-        <f>K15/K7</f>
+        <f t="shared" si="15"/>
         <v>1.8680383663366336E-2</v>
       </c>
     </row>
     <row r="18" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="31"/>
+      <c r="B18" s="26"/>
     </row>
     <row r="19" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="26" t="s">
         <v>82</v>
       </c>
       <c r="E19" s="9">
@@ -3499,52 +3501,52 @@
         <v>0.30416430442501302</v>
       </c>
       <c r="G20" s="8">
-        <f t="shared" ref="G20" si="13">(G19-F19)/F19</f>
+        <f t="shared" ref="G20" si="16">(G19-F19)/F19</f>
         <v>0.28778042202125981</v>
       </c>
       <c r="H20" s="8">
-        <f t="shared" ref="H20" si="14">(H19-G19)/G19</f>
+        <f t="shared" ref="H20" si="17">(H19-G19)/G19</f>
         <v>0.28152689210632664</v>
       </c>
       <c r="I20" s="8">
-        <f t="shared" ref="I20" si="15">(I19-H19)/H19</f>
+        <f t="shared" ref="I20" si="18">(I19-H19)/H19</f>
         <v>0.2326475677754278</v>
       </c>
       <c r="J20" s="8">
-        <f t="shared" ref="J20" si="16">(J19-I19)/I19</f>
+        <f t="shared" ref="J20" si="19">(J19-I19)/I19</f>
         <v>0.20924972703166428</v>
       </c>
       <c r="K20" s="8">
-        <f t="shared" ref="K20" si="17">(K19-J19)/J19</f>
+        <f t="shared" ref="K20" si="20">(K19-J19)/J19</f>
         <v>0.21986455981941316</v>
       </c>
     </row>
     <row r="24" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29">
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24">
         <v>2024</v>
       </c>
-      <c r="F24" s="29">
+      <c r="F24" s="24">
         <f>E24+1</f>
         <v>2025</v>
       </c>
-      <c r="G24" s="30" t="s">
+      <c r="G24" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="H24" s="30" t="s">
+      <c r="H24" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="I24" s="30" t="s">
+      <c r="I24" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="J24" s="30" t="s">
+      <c r="J24" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="K24" s="30" t="s">
+      <c r="K24" s="25" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3566,7 +3568,7 @@
       <c r="P25" s="21"/>
     </row>
     <row r="26" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="26" t="s">
         <v>63</v>
       </c>
       <c r="E26" s="9">
@@ -3598,39 +3600,39 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="8">
-        <f>E26/E7</f>
+        <f t="shared" ref="E27:K27" si="21">E26/E7</f>
         <v>0.89439893734779707</v>
       </c>
       <c r="F27" s="8">
-        <f>F26/F7</f>
+        <f t="shared" si="21"/>
         <v>0.83741679753118647</v>
       </c>
       <c r="G27" s="8">
-        <f>G26/G7</f>
+        <f t="shared" si="21"/>
         <v>0.85688913177129589</v>
       </c>
       <c r="H27" s="8">
-        <f>H26/H7</f>
+        <f t="shared" si="21"/>
         <v>0.86456177270744938</v>
       </c>
       <c r="I27" s="8">
-        <f>I26/I7</f>
+        <f t="shared" si="21"/>
         <v>0.87351446020174917</v>
       </c>
       <c r="J27" s="8">
-        <f>J26/J7</f>
+        <f t="shared" si="21"/>
         <v>0.84396462616285739</v>
       </c>
       <c r="K27" s="8">
-        <f>K26/K7</f>
+        <f t="shared" si="21"/>
         <v>0.88857518564356441</v>
       </c>
     </row>
     <row r="28" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="31"/>
+      <c r="B28" s="26"/>
     </row>
     <row r="29" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="27" t="s">
         <v>84</v>
       </c>
       <c r="E29" s="9">
@@ -3667,10 +3669,10 @@
       <c r="K30" s="8"/>
     </row>
     <row r="31" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="32"/>
+      <c r="B31" s="27"/>
     </row>
     <row r="32" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="27" t="s">
         <v>85</v>
       </c>
       <c r="E32" s="9">
@@ -3694,11 +3696,11 @@
         <v>0.7519170366937169</v>
       </c>
       <c r="F33" s="8">
-        <f t="shared" ref="F33:G33" si="18">F32/F19</f>
+        <f t="shared" ref="F33:G33" si="22">F32/F19</f>
         <v>0.73933047755037284</v>
       </c>
       <c r="G33" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.77616029804555442</v>
       </c>
       <c r="H33" s="8"/>
@@ -3707,11 +3709,12 @@
       <c r="K33" s="8"/>
     </row>
     <row r="35" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="E35" s="9">
-        <v>289.7</v>
+      <c r="E35" s="5">
+        <f>E38+E47</f>
+        <v>312.28500000000003</v>
       </c>
       <c r="F35" s="9">
         <v>470.95600000000002</v>
@@ -3740,39 +3743,39 @@
       <c r="D36" s="2"/>
       <c r="E36" s="8">
         <f>E35/E4</f>
-        <v>0.41782709717616956</v>
+        <v>0.45040088036472253</v>
       </c>
       <c r="F36" s="8">
         <f>F35/F4</f>
         <v>0.37222602474467337</v>
       </c>
       <c r="G36" s="8">
-        <f t="shared" ref="G36:K36" si="19">G35/G4</f>
+        <f t="shared" ref="G36:K36" si="23">G35/G4</f>
         <v>0.3649341392701419</v>
       </c>
       <c r="H36" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0.3550265438979574</v>
       </c>
       <c r="I36" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0.3512355608154285</v>
       </c>
       <c r="J36" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0.35112804878048781</v>
       </c>
       <c r="K36" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0.35338260697193669</v>
       </c>
     </row>
     <row r="38" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="26" t="s">
         <v>79</v>
       </c>
       <c r="E38" s="9">
-        <v>229.8</v>
+        <v>243.46700000000001</v>
       </c>
       <c r="F38" s="9">
         <v>389.08699999999999</v>
@@ -3801,7 +3804,7 @@
       <c r="D39" s="2"/>
       <c r="E39" s="8">
         <f>E38/E19</f>
-        <v>0.95096607062309391</v>
+        <v>1.0075233086004909</v>
       </c>
       <c r="F39" s="8">
         <f>F38/F7</f>
@@ -3829,10 +3832,10 @@
       </c>
     </row>
     <row r="41" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="32" t="s">
+      <c r="B41" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="E41" s="33" t="s">
+      <c r="E41" s="28" t="s">
         <v>88</v>
       </c>
       <c r="F41" s="1">
@@ -3860,40 +3863,40 @@
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="34"/>
+      <c r="E42" s="29"/>
       <c r="F42" s="8">
         <f>F41/F11</f>
         <v>0.51717116115246797</v>
       </c>
       <c r="G42" s="8">
-        <f t="shared" ref="G42:K42" si="20">G41/G11</f>
+        <f t="shared" ref="G42:K42" si="24">G41/G11</f>
         <v>0.51704381227377494</v>
       </c>
       <c r="H42" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0.51061399463096069</v>
       </c>
       <c r="I42" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0.52861483335334269</v>
       </c>
       <c r="J42" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0.53201492537313433</v>
       </c>
       <c r="K42" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0.55396610808941427</v>
       </c>
     </row>
     <row r="43" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E43" s="33"/>
+      <c r="E43" s="28"/>
     </row>
     <row r="44" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="32" t="s">
+      <c r="B44" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="E44" s="33" t="s">
+      <c r="E44" s="28" t="s">
         <v>88</v>
       </c>
       <c r="F44" s="1">
@@ -3927,32 +3930,32 @@
         <v>0.43628269337785203</v>
       </c>
       <c r="G45" s="8">
-        <f t="shared" ref="G45:K45" si="21">G44/G15</f>
+        <f t="shared" ref="G45:K45" si="25">G44/G15</f>
         <v>0.39024390243902435</v>
       </c>
       <c r="H45" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.36544190665342596</v>
       </c>
       <c r="I45" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.38574423480083853</v>
       </c>
       <c r="J45" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.39065817409766451</v>
       </c>
       <c r="K45" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.38095238095238093</v>
       </c>
     </row>
     <row r="47" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="31" t="s">
+      <c r="B47" s="26" t="s">
         <v>82</v>
       </c>
       <c r="E47" s="9">
-        <v>60.3</v>
+        <v>68.817999999999998</v>
       </c>
       <c r="F47" s="9">
         <v>84.776600000000002</v>
@@ -3981,30 +3984,30 @@
       <c r="D48" s="2"/>
       <c r="E48" s="8">
         <f>E47/E19</f>
-        <v>0.24953548328360556</v>
+        <v>0.28478495669338583</v>
       </c>
       <c r="F48" s="8">
-        <f t="shared" ref="F48:K48" si="22">F47/F19</f>
+        <f t="shared" ref="F48:K48" si="26">F47/F19</f>
         <v>0.26900396636522295</v>
       </c>
       <c r="G48" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.271264328165502</v>
       </c>
       <c r="H48" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.26279561622764852</v>
       </c>
       <c r="I48" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.25752612696927157</v>
       </c>
       <c r="J48" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.25888423089326024</v>
       </c>
       <c r="K48" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.25610658771280531</v>
       </c>
     </row>
@@ -4020,7 +4023,7 @@
   <dimension ref="B2:P78"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="H11" sqref="H11:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4031,38 +4034,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="37" t="s">
+      <c r="C3" s="40"/>
+      <c r="D3" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38" t="s">
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
     </row>
     <row r="4" spans="2:16" s="19" customFormat="1" ht="1.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -4082,171 +4085,171 @@
       <c r="P4" s="21"/>
     </row>
     <row r="5" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39" t="s">
+      <c r="C5" s="41"/>
+      <c r="D5" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="40" t="s">
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="39" t="s">
+      <c r="C8" s="42"/>
+      <c r="D8" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="40" t="s">
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
     </row>
     <row r="11" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39" t="s">
+      <c r="C11" s="41"/>
+      <c r="D11" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40" t="s">
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
     </row>
     <row r="13" spans="2:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
     </row>
     <row r="14" spans="2:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
     </row>
     <row r="15" spans="2:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
     </row>
     <row r="16" spans="2:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
     </row>
     <row r="17" spans="2:16" s="19" customFormat="1" ht="1.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="20"/>
@@ -4266,24 +4269,24 @@
       <c r="P17" s="21"/>
     </row>
     <row r="18" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
     </row>
     <row r="19" spans="2:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
     </row>
     <row r="21" spans="2:16" s="19" customFormat="1" ht="1.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="20"/>
@@ -4303,15 +4306,15 @@
       <c r="P21" s="21"/>
     </row>
     <row r="22" spans="2:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
     </row>
     <row r="23" spans="2:16" s="19" customFormat="1" ht="1.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="20"/>
@@ -4331,71 +4334,71 @@
       <c r="P23" s="21"/>
     </row>
     <row r="24" spans="2:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
     </row>
     <row r="25" spans="2:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
     </row>
     <row r="26" spans="2:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
     </row>
     <row r="27" spans="2:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
     </row>
     <row r="28" spans="2:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="42" t="s">
+      <c r="B28" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
     </row>
     <row r="29" spans="2:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
     </row>
     <row r="30" spans="2:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
     </row>
     <row r="31" spans="2:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" s="1" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4434,6 +4437,18 @@
     <sortCondition descending="1" ref="F76:F84"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="B8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:G10"/>
+    <mergeCell ref="H8:K10"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="H5:K7"/>
+    <mergeCell ref="E5:G7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="B5:C7"/>
     <mergeCell ref="B24:H27"/>
     <mergeCell ref="B22:H22"/>
     <mergeCell ref="B18:H19"/>
@@ -4443,18 +4458,6 @@
     <mergeCell ref="B16:H16"/>
     <mergeCell ref="H11:K14"/>
     <mergeCell ref="E11:G14"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="H5:K7"/>
-    <mergeCell ref="E5:G7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="B5:C7"/>
-    <mergeCell ref="B8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:G10"/>
-    <mergeCell ref="H8:K10"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:G3"/>
   </mergeCells>
   <conditionalFormatting sqref="R6:AJ6">
     <cfRule type="colorScale" priority="4">
